--- a/P0091/09_FICHAS/N3-FD-General.xlsx
+++ b/P0091/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5946F4A-BA4A-4B1E-865E-71A2C69E40D4}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D94B632-A4D2-4716-BC0B-C733EAB6FDDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -236,6 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -520,7 +521,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -600,7 +601,7 @@
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F2">

--- a/P0091/09_FICHAS/N3-FD-General.xlsx
+++ b/P0091/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D94B632-A4D2-4716-BC0B-C733EAB6FDDD}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683D002E-11D2-4550-9734-81CD385E94FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,16 +195,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -216,11 +216,9 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -231,12 +229,16 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -518,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -538,155 +540,157 @@
     <col min="15" max="15" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2022</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2022</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
